--- a/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Alperen Sengun</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21/5/3/4/1</t>
+          <t>17/11/12/3/3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 4-5 | STL 0-1</t>
+          <t>PTS 16-20 | AST 9-12 | REB 11-15 | BLK 2-3 | STL 2-3</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -526,22 +526,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jusuf Nurkić</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -551,40 +551,40 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12/2/16/2/3</t>
+          <t>3/6/14/1/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 16-20 | BLK 2-3 | STL 2-3</t>
+          <t>PTS 0-5 | AST 6-8 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Jahmai Mashack</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -594,40 +594,40 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>35/4/5/2/0</t>
+          <t>8/1/1/0/6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PTS 31-40 | AST 3-5 | REB 3-5 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 6-7</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,40 +637,40 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24/4/3/0/4</t>
+          <t>12/6/7/2/4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 4-5</t>
+          <t>PTS 11-15 | AST 6-8 | REB 6-10 | BLK 2-3 | STL 4-5</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jericho Sims</t>
+          <t>Nikola Jokić</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -680,40 +680,40 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4/4/15/2/0</t>
+          <t>22/17/14/4/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 11-15 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 21-25 | AST 13-20 | REB 11-15 | BLK 4-5 | STL 0-1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Donovan Clingan</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,40 +723,40 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13/0/17/0/0</t>
+          <t>35/4/2/2/2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 16-20 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 31-40 | AST 3-5 | REB 0-2 | BLK 2-3 | STL 2-3</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4066</v>
+        <v>0.9048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ausar Thompson</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -766,40 +766,40 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1/3/3/2</t>
+          <t>4/11/8/1/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 2-3</t>
+          <t>PTS 0-5 | AST 9-12 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4066</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
+          <t>Nique Clifford</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -809,40 +809,40 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11/4/12/0/2</t>
+          <t>30/4/4/2/2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 26-30 | AST 3-5 | REB 3-5 | BLK 2-3 | STL 2-3</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3679</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,40 +852,40 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1/3/5/2/0</t>
+          <t>20/3/19/2/1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 16-20 | AST 3-5 | REB 16-20 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3012</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scoot Henderson</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -895,40 +895,40 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>11/9/5/0/1</t>
+          <t>21/9/2/0/0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 9-12 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 9-12 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2725</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -938,40 +938,40 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>26/0/6/0/2</t>
+          <t>40/12/12/1/3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 31-40 | AST 9-12 | REB 11-15 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2466</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -981,40 +981,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31/7/9/0/2</t>
+          <t>19/9/1/0/2</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PTS 31-40 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 9-12 | REB 0-2 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2466</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vít Krejčí</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1024,40 +1024,40 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11/1/0/2/0</t>
+          <t>20/10/2/0/2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 16-20 | AST 9-12 | REB 0-2 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2019</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kevin Porter Jr.</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1067,40 +1067,40 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23/8/7/0/3</t>
+          <t>5/1/0/0/5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 4-5</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1827</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1110,40 +1110,40 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>22/1/7/2/0</t>
+          <t>16/1/11/3/0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1827</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ronald Holland II</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1153,40 +1153,40 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5/3/6/0/2</t>
+          <t>16/2/12/4/1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 4-5 | STL 0-1</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1496</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1196,40 +1196,40 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2/1/11/0/0</t>
+          <t>21/4/3/1/4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 4-5</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1353</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1239,40 +1239,40 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>22/8/2/0/1</t>
+          <t>23/4/4/0/4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 4-5</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1003</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jrue Holiday</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1282,40 +1282,40 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>20/7/5/0/2</t>
+          <t>13/10/2/1/1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | AST 9-12 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0498</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dylan Cardwell</t>
+          <t>Will Riley</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1325,40 +1325,40 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14/1/14/2/1</t>
+          <t>27/2/3/1/3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 11-15 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 26-30 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0498</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nique Clifford</t>
+          <t>Dillon Brooks</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1368,40 +1368,40 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16/2/2/1/2</t>
+          <t>28/2/2/0/1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 26-30 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0498</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1411,40 +1411,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>13/6/2/1/0</t>
+          <t>14/3/11/0/2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0369</v>
+        <v>0.3329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1454,40 +1454,40 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>24/7/8/1/0</t>
+          <t>11/2/11/0/2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0302</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1497,30 +1497,30 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>29/2/7/1/0</t>
+          <t>28/11/3/0/0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 9-12 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0224</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cam Spencer</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1540,40 +1540,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18/5/0/1/2</t>
+          <t>11/2/6/2/2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 2-3</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0183</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Tari Eason</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>29/1/4/0/0</t>
+          <t>26/1/8/0/3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0136</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1626,40 +1626,40 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2/5/4/0/3</t>
+          <t>31/8/9/0/3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 31-40 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0123</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1669,40 +1669,40 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8/6/2/0/1</t>
+          <t>23/8/7/1/3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0101</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1712,40 +1712,40 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8/6/1/0/0</t>
+          <t>21/2/9/2/0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0101</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1755,40 +1755,40 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>13/2/7/3/0</t>
+          <t>20/10/7/1/1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 16-20 | AST 9-12 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0067</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1798,40 +1798,40 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15/2/9/3/1</t>
+          <t>12/0/2/2/1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0067</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jerami Grant</t>
+          <t>Jamir Watkins</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1841,40 +1841,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>23/2/2/1/1</t>
+          <t>13/1/1/2/1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0045</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Zaccharie Risacher</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1884,40 +1884,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24/1/1/0/1</t>
+          <t>18/0/3/3/0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0045</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bobby Portis</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1927,40 +1927,40 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>21/1/6/0/0</t>
+          <t>21/9/5/0/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 9-12 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0041</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Saddiq Bey</t>
+          <t>Walter Clayton Jr.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1970,40 +1970,40 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>30/5/9/0/1</t>
+          <t>8/7/4/0/3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I36" t="n">
-        <v>0.003</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2013,40 +2013,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>26/5/6/1/0</t>
+          <t>15/4/3/2/0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I37" t="n">
-        <v>0.003</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2056,40 +2056,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11/7/7/0/0</t>
+          <t>4/7/0/0/0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0027</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2099,40 +2099,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2/3/8/0/1</t>
+          <t>23/8/2/0/1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0015</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2142,40 +2142,40 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>13/6/3/0/1</t>
+          <t>25/2/4/1/3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0007</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,40 +2185,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11/7/5/0/0</t>
+          <t>21/2/3/0/3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0007</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cedric Coward</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2228,40 +2228,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>11/1/8/0/3</t>
+          <t>19/2/1/0/2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0005</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2271,40 +2271,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12/4/4/0/2</t>
+          <t>16/8/5/1/2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0003</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Reed Sheppard</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2314,40 +2314,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>12/1/1/0/2</t>
+          <t>16/6/3/0/3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0003</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Caleb Love</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7/3/3/1/2</t>
+          <t>17/8/0/0/1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0002</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Dylan Cardwell</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2400,40 +2400,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5/1/3/2/1</t>
+          <t>12/4/11/1/1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0002</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2443,40 +2443,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5/1/5/1/2</t>
+          <t>17/0/14/0/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0001</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Shaedon Sharpe</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2486,40 +2486,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2/2/2/0/0</t>
+          <t>33/3/9/1/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 31-40 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6624</v>
+        <v>37</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Yang Hansen</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2529,40 +2529,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2/0/1/0/0</t>
+          <t>29/6/9/0/1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6624</v>
+        <v>37</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Micah Peavy</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2572,40 +2572,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>29/1/10/0/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6624</v>
+        <v>41</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gary Harris</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0/2/1/0/0</t>
+          <t>27/1/7/1/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6624</v>
+        <v>41</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pete Nance</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2658,40 +2658,40 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5/1/1/0/1</t>
+          <t>16/2/6/2/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>6624</v>
+        <v>41</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joan Beringer</t>
+          <t>Carter Bryant</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2701,40 +2701,40 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2/0/2/0/0</t>
+          <t>11/0/5/3/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>6624</v>
+        <v>42</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kam Jones</t>
+          <t>Moussa Diabaté</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2744,40 +2744,40 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2/0/0/0/1</t>
+          <t>11/2/15/0/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6624</v>
+        <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Johnny Juzang</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2787,40 +2787,40 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3/0/1/1/0</t>
+          <t>4/4/3/0/2</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6624</v>
+        <v>46</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Karlo Matković</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2830,40 +2830,40 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0/1/2/0/0</t>
+          <t>21/4/2/0/0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>6624</v>
+        <v>47</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mohamed Diawara</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2873,40 +2873,40 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4/0/2/1/0</t>
+          <t>18/2/6/0/2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6624</v>
+        <v>48</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Wendell Moore Jr.</t>
+          <t>GG Jackson</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2916,40 +2916,40 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0/0/1/1/0</t>
+          <t>11/2/8/2/1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6624</v>
+        <v>52</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Kevin McCullar Jr.</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2959,40 +2959,40 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2/2/2/0/1</t>
+          <t>22/3/4/0/3</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>6624</v>
+        <v>52</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nikola Jović</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3002,40 +3002,40 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0/1/0/1/0</t>
+          <t>9/6/4/0/1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>6624</v>
+        <v>54</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pacôme Dadiet</t>
+          <t>Jabari Smith Jr.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3045,40 +3045,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5/0/1/0/1</t>
+          <t>22/0/10/1/1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6624</v>
+        <v>57</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3088,40 +3088,40 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2/0/2/1/1</t>
+          <t>29/3/5/0/0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>6624</v>
+        <v>60</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Myron Gardner</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3131,40 +3131,40 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0/0/1/0/0</t>
+          <t>26/5/6/0/1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6624</v>
+        <v>60</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Marcus Sasser</t>
+          <t>Devin Vassell</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3174,40 +3174,40 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>17/6/4/1/0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>6624</v>
+        <v>61</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Trey Jemison III</t>
+          <t>Sidy Cissoko</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3217,40 +3217,40 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2/0/0/0/1</t>
+          <t>7/4/10/0/2</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>6624</v>
+        <v>62</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3260,40 +3260,40 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5/0/0/0/0</t>
+          <t>10/3/6/0/2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>6624</v>
+        <v>62</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Day'Ron Sharpe</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3303,40 +3303,40 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2/0/0/0/0</t>
+          <t>19/4/9/0/2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>6624</v>
+        <v>62</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Julian Strawther</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3346,40 +3346,40 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>6/2/1/0/0</t>
+          <t>19/0/5/0/2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>756</v>
+        <v>64</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Brandin Podziemski</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3389,40 +3389,40 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7/2/1/0/0</t>
+          <t>14/4/6/0/2</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>756</v>
+        <v>66</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Dyson Daniels</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3432,40 +3432,40 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6/1/1/0/0</t>
+          <t>11/3/6/0/2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>756</v>
+        <v>66</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chaz Lanier</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3475,40 +3475,40 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7/1/2/0/0</t>
+          <t>4/3/7/1/1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>756</v>
+        <v>67</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kevin Huerter</t>
+          <t>Danny Wolf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3518,40 +3518,40 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8/1/0/1/1</t>
+          <t>16/6/7/0/0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>756</v>
+        <v>69</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daeqwon Plowden</t>
+          <t>Olivier-Maxence Prosper</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3561,40 +3561,40 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>8/0/0/0/0</t>
+          <t>25/0/5/0/0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>756</v>
+        <v>74</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3604,40 +3604,40 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6/0/1/0/0</t>
+          <t>23/1/3/0/0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>756</v>
+        <v>74</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3647,40 +3647,40 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6/4/2/1/1</t>
+          <t>22/2/3/0/1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GG Jackson</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3690,40 +3690,40 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>15/2/3/1/1</t>
+          <t>14/7/5/0/1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AJ Green</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3733,40 +3733,40 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>14/2/3/0/0</t>
+          <t>15/6/4/0/0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Isaiah Stewart</t>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3776,40 +3776,40 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>15/0/3/0/1</t>
+          <t>14/0/7/0/2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3819,42 +3819,42 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>19/2/1/0/0</t>
+          <t>13/2/8/1/2</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Keon Ellis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -3862,42 +3862,42 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18/2/2/0/1</t>
+          <t>6/3/3/1/3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jahmai Mashack</t>
+          <t>Vít Krejčí</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>MEM</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -3905,40 +3905,40 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5/1/1/0/3</t>
+          <t>10/4/3/0/2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3948,40 +3948,40 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6/5/3/0/0</t>
+          <t>10/4/3/1/3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Olivier-Maxence Prosper</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3991,40 +3991,40 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>13/2/6/0/0</t>
+          <t>6/5/3/0/3</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Ben Saraf</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4034,40 +4034,40 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>15/1/9/1/1</t>
+          <t>10/4/4/0/2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4077,40 +4077,40 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>15/1/6/0/0</t>
+          <t>20/4/1/1/1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Jake LaRavia</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4120,40 +4120,40 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>9/2/10/0/0</t>
+          <t>2/1/4/2/0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4163,40 +4163,40 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>6/1/7/0/0</t>
+          <t>4/0/4/2/1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Keshon Gilbert</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4206,40 +4206,40 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>12/4/6/1/1</t>
+          <t>4/2/3/3/0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Javon Small</t>
+          <t>Trendon Watford</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4249,30 +4249,30 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>11/3/5/0/0</t>
+          <t>6/2/7/2/0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Toumani Camara</t>
+          <t>Yang Hansen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4292,16 +4292,16 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>15/3/4/0/1</t>
+          <t>0/0/1/0/0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>274</v>
+        <v>6660</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4310,22 +4310,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Jaylen Wells</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4335,16 +4335,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>13/4/3/1/0</t>
+          <t>2/2/1/0/0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>274</v>
+        <v>6660</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Walter Clayton Jr.</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4378,16 +4378,16 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>11/4/3/0/1</t>
+          <t>0/0/1/0/0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>274</v>
+        <v>6660</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4396,22 +4396,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Javonte Cooke</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4421,16 +4421,16 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>11/5/4/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>274</v>
+        <v>6660</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4439,22 +4439,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Devin Carter</t>
+          <t>Ryan Dunn</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4464,16 +4464,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>14/4/4/0/1</t>
+          <t>3/0/1/0/0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>274</v>
+        <v>6660</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4482,22 +4482,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rayan Rupert</t>
+          <t>Justin Edwards</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4507,16 +4507,16 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>12/0/1/0/1</t>
+          <t>2/0/0/0/1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>300</v>
+        <v>6660</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4525,22 +4525,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Jamaree Bouyea</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4550,16 +4550,16 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6/2/3/0/1</t>
+          <t>2/0/0/0/0</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>692</v>
+        <v>6660</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4568,22 +4568,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Micah Potter</t>
+          <t>Will Richard</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4593,16 +4593,16 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8/1/5/0/0</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>692</v>
+        <v>6660</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4611,22 +4611,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4636,16 +4636,16 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>9/2/4/0/1</t>
+          <t>0/0/1/0/0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>692</v>
+        <v>6660</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4654,22 +4654,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4679,16 +4679,16 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>6/1/4/1/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>692</v>
+        <v>6660</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4697,22 +4697,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4722,16 +4722,16 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>7/2/3/0/1</t>
+          <t>0/0/1/0/0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>692</v>
+        <v>6660</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4740,22 +4740,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Baylor Scheierman</t>
+          <t>Lachlan Olbrich</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4765,16 +4765,16 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5/2/7/1/1</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>222</v>
+        <v>6660</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4783,22 +4783,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Leonard Miller</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4808,16 +4808,16 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>5/2/6/0/0</t>
+          <t>0/0/0/0/1</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>222</v>
+        <v>6660</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4826,22 +4826,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Daniss Jenkins</t>
+          <t>DaRon Holmes II</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4851,16 +4851,16 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>18/3/4/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>196</v>
+        <v>6660</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4869,22 +4869,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Jock Landale</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4894,16 +4894,16 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>16/1/7/0/1</t>
+          <t>5/1/0/0/0</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>156</v>
+        <v>6660</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4912,22 +4912,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Taylor Hendricks</t>
+          <t>Tre Mann</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4937,16 +4937,16 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>5/0/5/0/1</t>
+          <t>3/2/1/1/0</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4955,22 +4955,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4980,16 +4980,16 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0/0/5/0/0</t>
+          <t>0/0/0/1/0</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -4998,22 +4998,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Yves Missi</t>
+          <t>Jase Richardson</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5023,16 +5023,16 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2/1/4/1/1</t>
+          <t>5/2/0/0/1</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -5041,22 +5041,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Cody Williams</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5066,16 +5066,16 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>4/0/3/0/0</t>
+          <t>0/0/2/0/1</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -5084,22 +5084,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hugo González</t>
+          <t>Jett Howard</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5109,16 +5109,16 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2/0/3/0/1</t>
+          <t>2/1/0/0/1</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -5127,22 +5127,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5152,16 +5152,16 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2/1/4/0/0</t>
+          <t>0/1/0/1/0</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -5170,22 +5170,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Keyonte George</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5195,16 +5195,16 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2/0/3/0/0</t>
+          <t>5/1/1/0/1</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -5213,22 +5213,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5238,16 +5238,16 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2/0/5/0/1</t>
+          <t>0/1/2/0/0</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -5256,22 +5256,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>AJ Johnson</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5281,16 +5281,16 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2/2/3/1/1</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -5299,22 +5299,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5324,16 +5324,16 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3/2/3/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>965</v>
+        <v>6660</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -5342,22 +5342,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Blake Wesley</t>
+          <t>Julian Champagnie</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5367,16 +5367,16 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4/3/1/0/1</t>
+          <t>5/0/2/1/1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>276</v>
+        <v>6660</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -5385,22 +5385,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jeremiah Fears</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5410,16 +5410,16 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2/4/1/1/0</t>
+          <t>1/0/1/0/1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>276</v>
+        <v>6660</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -5428,22 +5428,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5453,16 +5453,16 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>5/3/2/0/0</t>
+          <t>0/0/1/0/0</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>276</v>
+        <v>6660</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -5471,22 +5471,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Jeremy Sochan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5496,16 +5496,16 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>13/0/3/0/2</t>
+          <t>0/0/0/1/0</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>113</v>
+        <v>6660</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Maxime Raynaud</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5539,16 +5539,16 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>12/2/5/0/2</t>
+          <t>3/1/0/0/0</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>113</v>
+        <v>6660</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -5557,22 +5557,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pelle Larsson</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5582,16 +5582,16 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0/3/5/0/0</t>
+          <t>0/1/1/0/0</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>172</v>
+        <v>6660</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5600,22 +5600,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5625,16 +5625,16 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5/3/3/0/1</t>
+          <t>3/1/2/0/0</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>172</v>
+        <v>6660</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -5643,22 +5643,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Josh Okogie</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5668,16 +5668,16 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>20/2/3/0/1</t>
+          <t>0/0/2/0/1</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>211</v>
+        <v>6660</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5686,22 +5686,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Sidy Cissoko</t>
+          <t>Jared McCain</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5711,16 +5711,16 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>9/2/1/1/2</t>
+          <t>5/1/2/0/0</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>125</v>
+        <v>6660</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5729,22 +5729,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Bryce McGowens</t>
+          <t>Egor Dëmin</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5754,16 +5754,16 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>11/4/1/1/0</t>
+          <t>4/2/2/1/1</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>146</v>
+        <v>6660</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5772,22 +5772,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Drake Powell</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5797,16 +5797,16 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>15/5/1/0/0</t>
+          <t>5/2/2/1/0</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>146</v>
+        <v>6660</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5815,22 +5815,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ryan Rollins</t>
+          <t>Blake Wesley</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5840,16 +5840,16 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>22/4/4/0/0</t>
+          <t>10/0/1/0/0</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>113</v>
+        <v>765</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5883,16 +5883,16 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>19/4/6/1/1</t>
+          <t>6/2/1/0/0</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -5901,22 +5901,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Derik Queen</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5926,16 +5926,16 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>17/3/8/1/0</t>
+          <t>10/2/2/0/1</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5944,22 +5944,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5969,18 +5969,3286 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>8/0/3/0/2</t>
+          <t>8/2/2/0/1</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>765</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Josh Green</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8/0/1/0/0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>765</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8/2/2/0/0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>765</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6/0/2/1/0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>765</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8/2/2/0/0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>765</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Harrison Barnes</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9/1/1/0/0</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>765</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Kentavious Caldwell-Pope</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>11/0/4/0/1</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>403</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>14/1/4/0/0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>403</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Grant Williams</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>11/1/3/0/0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>403</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Caleb Martin</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>11/2/5/0/0</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>403</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rui Hachimura</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>18/0/1/1/0</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>126</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Aaron Wiggins</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>17/1/2/0/0</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>126</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2/2/2/0/2</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>141</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Asa Newell</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5/1/1/0/2</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>141</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Dennis Schröder</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7/4/3/0/0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>297</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Quentin Grimes</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6/3/4/0/0</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>297</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Jalen Green</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8/3/3/0/0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>297</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Rob Dillingham</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>9/4/3/0/1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>297</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>10/3/3/0/1</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>297</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Luke Kornet</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6/3/4/0/0</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>297</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>P.J. Washington</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>10/3/5/0/1</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>297</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6/5/4/0/1</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>297</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nick Richards</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>15/0/7/1/1</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>275</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Moritz Wagner</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>13/0/8/0/0</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>275</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Kevin Love</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>13/0/6/0/0</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>275</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Toumani Camara</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8/1/7/1/1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>354</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jaylon Tyson</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>10/0/6/0/0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>354</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Wendell Carter Jr.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>8/1/6/1/1</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>354</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>15/3/8/0/1</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>224</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Dylan Harper</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>11/5/4/1/1</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>279</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Cooper Flagg</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>14/4/4/0/0</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>279</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sharife Cooper</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>14/3/5/0/0</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>279</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>11/4/5/0/0</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>279</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nolan Traore</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>15/4/3/0/0</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>279</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Ty Jerome</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>13/1/1/1/1</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>302</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tristan Vukcevic</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>14/2/2/0/1</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>302</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Thomas Bryant</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>10/2/3/0/1</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>706</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Nae'Qwan Tomlin</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6/2/5/0/0</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>706</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jordan Goodwin</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7/0/3/0/1</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>706</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Dominick Barlow</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6/0/4/0/0</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>706</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jaxson Hayes</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6/1/4/1/1</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>706</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>10/2/4/1/1</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>706</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jonas Valančiūnas</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>10/1/4/1/0</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>706</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ryan Kalkbrenner</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6/0/5/0/0</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>706</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Kyle Filipowski</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>9/0/5/0/0</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>706</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Keldon Johnson</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>8/0/4/0/0</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>706</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Daniel Gafford</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9/2/4/0/0</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>706</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>JD Davison</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>8/1/4/0/0</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>706</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Jaylin Williams</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6/1/3/0/1</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>706</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Anthony Gill</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>9/2/5/0/1</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>706</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>VJ Edgecombe</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5/2/6/0/0</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>224</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Maxi Kleber</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5/1/7/1/0</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>224</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>18/4/4/1/1</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>200</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Collin Sexton</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>17/4/3/0/0</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>200</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Max Christie</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>17/3/3/0/1</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>200</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Brandon Williams</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>18/4/3/0/1</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>200</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Adem Bona</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4/0/5/1/1</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>968</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oso Ighodaro</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3/1/3/0/0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>968</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4/2/3/0/1</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>968</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Rayan Rupert</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0/3/0/0/0</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>278</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Luguentz Dort</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2/3/2/0/0</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>278</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>13/1/5/0/2</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>114</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Javon Small</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>22/4/6/1/0</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>PTS 21-25 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>122</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Matas Buzelis</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>21/3/8/0/1</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>PTS 21-25 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>122</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Kon Knueppel</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>23/4/8/1/0</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>PTS 21-25 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>122</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Michael Porter Jr.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>23/3/6/0/1</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>PTS 21-25 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>122</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Sion James</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3/4/3/0/1</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>173</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Noah Clowney</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>18/2/3/1/1</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>212</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Alex Caruso</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>8/1/2/1/2</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>126</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>13/3/2/1/0</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>151</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Isaac Okoro</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>13/3/2/0/1</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>151</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>12/3/1/0/1</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>151</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>15/5/2/0/0</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>151</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Bub Carrington</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>11/4/2/0/0</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>151</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>16/4/6/0/1</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>150</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Brandon Miller</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>16/4/6/1/1</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>150</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Collin Gillespie</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6/2/4/0/2</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
           <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
-      <c r="H129" t="n">
-        <v>126</v>
-      </c>
-      <c r="I129" t="n">
+      <c r="H205" t="n">
+        <v>127</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>

--- a/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41/2/8/0/4</t>
+          <t>41/8/2/0/4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/6/14/4/2</t>
+          <t>25/14/6/4/2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22/3/8/0/5</t>
+          <t>22/8/3/0/5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6/7/2/0/2</t>
+          <t>6/2/7/0/2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>26/4/2/1/1</t>
+          <t>26/2/4/1/1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Myron Gardner</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10/6/7/0/2</t>
+          <t>15/7/2/2/2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 2-3</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Myron Gardner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15/2/7/2/2</t>
+          <t>10/7/6/0/2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 2-3</t>
+          <t>PTS 6-10 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2466</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22/6/3/1/2</t>
+          <t>22/3/6/1/2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1108</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +852,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10/5/13/0/0</t>
+          <t>10/13/5/0/0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1108</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -895,7 +895,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23/2/4/0/2</t>
+          <t>23/4/2/0/2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4/6/4/1/0</t>
+          <t>4/4/6/1/0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0334</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -981,25 +981,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12/5/12/0/1</t>
+          <t>31/3/8/0/0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 31-40 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0302</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1024,25 +1024,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31/8/3/0/0</t>
+          <t>19/14/1/1/0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PTS 31-40 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0273</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Alex Sarr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19/1/14/1/0</t>
+          <t>12/12/5/0/1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0247</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="16">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0101</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12/2/7/2/1</t>
+          <t>12/7/2/2/1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0055</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="18">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9/6/5/0/1</t>
+          <t>9/5/6/0/1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0041</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="19">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10/7/3/1/0</t>
+          <t>10/3/7/1/0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0041</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="20">
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0027</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1325,25 +1325,25 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21/0/4/0/1</t>
+          <t>13/4/6/0/1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1368,19 +1368,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13/6/4/0/1</t>
+          <t>21/4/0/0/1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="23">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11/2/10/1/2</t>
+          <t>11/10/2/1/2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1454,25 +1454,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11/1/1/0/2</t>
+          <t>12/5/3/0/3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>12/2/2/1/2</t>
+          <t>11/1/1/0/2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1506,16 +1506,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1540,16 +1540,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12/3/5/0/3</t>
+          <t>12/2/2/1/2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I26" t="n">
         <v>0.0002</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19/4/1/0/0</t>
+          <t>19/1/4/0/0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="28">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0/0/2/0/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0/0/2/0/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/2/1/0/0</t>
+          <t>0/1/2/0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/1/0/0/0</t>
+          <t>2/0/1/0/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/0/2/0/1</t>
+          <t>2/2/0/0/1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0/0/1/0/0</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2/0/1/0/1</t>
+          <t>2/1/0/0/1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2/0/1/0/0</t>
+          <t>2/1/0/0/0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/2/1/0/1</t>
+          <t>0/1/2/0/1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4/2/1/0/1</t>
+          <t>4/1/2/0/1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/0/1/0/0</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0/1/2/0/0</t>
+          <t>0/2/1/0/0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0/1/2/1/0</t>
+          <t>0/2/1/1/0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2/0/1/0/0</t>
+          <t>2/1/0/0/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0/0/2/0/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6683</v>
+        <v>6816</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8/0/1/0/1</t>
+          <t>8/1/0/0/1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10/2/1/0/0</t>
+          <t>10/1/2/0/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>9/0/1/1/1</t>
+          <t>9/1/0/1/1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6/4/0/0/0</t>
+          <t>6/0/4/0/0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8/4/1/0/0</t>
+          <t>8/1/4/0/0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8/3/1/0/1</t>
+          <t>8/1/3/0/1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15/0/4/1/1</t>
+          <t>15/4/0/1/1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14/2/5/0/0</t>
+          <t>14/5/2/0/0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14/1/4/1/0</t>
+          <t>14/4/1/1/0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0/2/0/1/2</t>
+          <t>0/0/2/1/2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8/3/9/0/1</t>
+          <t>8/9/3/0/1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>13/2/6/0/1</t>
+          <t>13/6/2/0/1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15/2/6/1/0</t>
+          <t>15/6/2/1/0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13/1/7/0/1</t>
+          <t>13/7/1/0/1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11/0/6/1/0</t>
+          <t>11/6/0/1/0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11/1/10/0/1</t>
+          <t>11/10/1/0/1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8/2/8/0/0</t>
+          <t>8/8/2/0/0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10/2/7/1/0</t>
+          <t>10/7/2/1/0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10/1/10/1/1</t>
+          <t>10/10/1/1/1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13/3/5/1/0</t>
+          <t>13/5/3/1/0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12/4/5/0/0</t>
+          <t>12/5/4/0/0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10/2/4/0/0</t>
+          <t>10/4/2/0/0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7/1/4/1/1</t>
+          <t>7/4/1/1/1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10/1/3/0/1</t>
+          <t>10/3/1/0/1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6/0/3/0/0</t>
+          <t>6/3/0/0/0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5/2/9/0/0</t>
+          <t>5/9/2/0/0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2/1/6/0/1</t>
+          <t>2/6/1/0/1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>17/2/8/0/0</t>
+          <t>17/8/2/0/0</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3/0/3/0/0</t>
+          <t>3/3/0/0/0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1/2/4/0/1</t>
+          <t>1/4/2/0/1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4/1/5/0/0</t>
+          <t>4/5/1/0/0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3/0/3/1/0</t>
+          <t>3/3/0/1/0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4/3/2/0/0</t>
+          <t>4/2/3/0/0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5/3/2/0/1</t>
+          <t>5/2/3/0/1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3/3/4/0/1</t>
+          <t>3/4/3/0/1</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>18/2/4/0/0</t>
+          <t>18/4/2/0/0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17/1/4/0/1</t>
+          <t>17/4/1/0/1</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>13/3/2/1/0</t>
+          <t>13/2/3/1/0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>13/5/2/0/1</t>
+          <t>13/2/5/0/1</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>20/5/8/0/1</t>
+          <t>20/8/5/0/1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>19/3/6/0/0</t>
+          <t>19/6/3/0/0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6/2/4/1/2</t>
+          <t>6/4/2/1/2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10/2/3/0/2</t>
+          <t>10/3/2/0/2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>

--- a/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41/8/2/0/4</t>
+          <t>41/8/2/4/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PTS 41-50 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 4-5</t>
+          <t>PTS 41-50 | REB 6-10 | AST 0-2 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -551,12 +551,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/14/6/4/2</t>
+          <t>25/14/6/2/4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 6-8 | REB 11-15 | BLK 4-5 | STL 2-3</t>
+          <t>PTS 21-25 | REB 11-15 | AST 6-8 | STL 2-3 | BLK 4-5</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -594,12 +594,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22/8/3/0/5</t>
+          <t>22/8/3/5/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 4-5</t>
+          <t>PTS 21-25 | REB 6-10 | AST 3-5 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6/2/7/0/2</t>
+          <t>6/2/7/2/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | REB 0-2 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PTS 26-30 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 26-30 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 2-3</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -766,12 +766,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10/7/6/0/2</t>
+          <t>10/7/6/2/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -809,12 +809,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22/3/6/1/2</t>
+          <t>22/3/6/2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 21-25 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -895,12 +895,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23/4/2/0/2</t>
+          <t>23/4/2/2/0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4/4/6/1/0</t>
+          <t>4/4/6/0/1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PTS 31-40 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 31-40 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19/14/1/1/0</t>
+          <t>19/14/1/0/1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 11-15 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12/12/5/0/1</t>
+          <t>12/12/5/1/0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 11-15 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5/4/4/1/3</t>
+          <t>5/4/4/3/1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12/7/2/2/1</t>
+          <t>12/7/2/1/2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9/5/6/0/1</t>
+          <t>9/5/6/1/0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10/3/7/1/0</t>
+          <t>10/3/7/0/1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5/2/2/2/0</t>
+          <t>5/2/2/0/2</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 2-3 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13/4/6/0/1</t>
+          <t>13/4/6/1/0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 6-8 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21/4/0/0/1</t>
+          <t>21/4/0/1/0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PTS 21-25 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11/10/2/1/2</t>
+          <t>11/10/2/2/1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12/5/3/0/3</t>
+          <t>12/5/3/3/0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11/1/1/0/2</t>
+          <t>11/1/1/2/0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12/2/2/1/2</t>
+          <t>12/2/2/2/1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4/1/1/1/0</t>
+          <t>4/1/1/0/1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2/0/0/1/0</t>
+          <t>2/0/0/0/1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/2/0/0/1</t>
+          <t>2/2/0/1/0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2/1/0/0/1</t>
+          <t>2/1/0/1/0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/1/1/1/0</t>
+          <t>0/1/1/0/1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/1/2/0/1</t>
+          <t>0/1/2/1/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4/1/2/0/1</t>
+          <t>4/1/2/1/0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0/2/1/1/0</t>
+          <t>0/2/1/0/1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8/1/0/0/1</t>
+          <t>8/1/0/1/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7/1/1/0/1</t>
+          <t>7/1/1/1/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8/1/3/0/1</t>
+          <t>8/1/3/1/0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14/4/1/1/0</t>
+          <t>14/4/1/0/1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3131,12 +3131,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0/0/2/1/2</t>
+          <t>0/0/2/2/1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8/9/3/0/1</t>
+          <t>8/9/3/1/0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>13/6/2/0/1</t>
+          <t>13/6/2/1/0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3260,12 +3260,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15/6/2/1/0</t>
+          <t>15/6/2/0/1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13/7/1/0/1</t>
+          <t>13/7/1/1/0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11/6/0/1/0</t>
+          <t>11/6/0/0/1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11/10/1/0/1</t>
+          <t>11/10/1/1/0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10/7/2/1/0</t>
+          <t>10/7/2/0/1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13/5/3/1/0</t>
+          <t>13/5/3/0/1</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3733,12 +3733,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10/3/1/0/1</t>
+          <t>10/3/1/1/0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3862,12 +3862,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2/6/1/0/1</t>
+          <t>2/6/1/1/0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1/4/2/0/1</t>
+          <t>1/4/2/1/0</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -4077,12 +4077,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3/3/0/1/0</t>
+          <t>3/3/0/0/1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5/2/3/0/1</t>
+          <t>5/2/3/1/0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3/4/3/0/1</t>
+          <t>3/4/3/1/0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PTS 0-5 | AST 3-5 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -4292,12 +4292,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17/4/1/0/1</t>
+          <t>17/4/1/1/0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8/1/1/0/3</t>
+          <t>8/1/1/3/0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 0-2 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>13/2/3/1/0</t>
+          <t>13/2/3/0/1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>13/2/5/0/1</t>
+          <t>13/2/5/1/0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PTS 11-15 | AST 3-5 | REB 0-2 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>20/8/5/0/1</t>
+          <t>20/8/5/1/0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PTS 16-20 | AST 3-5 | REB 6-10 | BLK 0-1 | STL 0-1</t>
+          <t>PTS 16-20 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4550,12 +4550,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6/4/2/1/2</t>
+          <t>6/4/2/2/1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4593,12 +4593,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10/3/2/0/2</t>
+          <t>10/3/2/2/0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PTS 6-10 | AST 0-2 | REB 3-5 | BLK 0-1 | STL 2-3</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H97" t="n">

--- a/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Myron Gardner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15/7/2/2/2</t>
+          <t>10/7/6/2/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
+          <t>PTS 6-10 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -741,7 +741,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Myron Gardner</t>
+          <t>Jay Huff</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -751,12 +751,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -766,25 +766,25 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10/7/6/2/0</t>
+          <t>15/7/2/2/2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2231</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kasparas Jakučionis</t>
+          <t>Kasparas Jakucionis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1003</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="10">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="11">
@@ -947,16 +947,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0273</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Alex Sarr</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -981,25 +981,25 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31/3/8/0/0</t>
+          <t>12/12/5/1/0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PTS 31-40 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0247</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1024,25 +1024,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19/14/1/0/1</t>
+          <t>31/3/8/0/0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 11-15 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 31-40 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0224</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
+          <t>Kel'el Ware</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1052,14 +1052,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -1067,19 +1067,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12/12/5/1/0</t>
+          <t>19/14/1/0/1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 11-15 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0166</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0045</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="18">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0033</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="19">
@@ -1248,10 +1248,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0033</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="20">
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0018</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1325,25 +1325,25 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13/4/6/1/0</t>
+          <t>21/4/0/1/0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1368,19 +1368,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21/4/0/1/0</t>
+          <t>13/4/6/1/0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="23">
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="n">
         <v>0.0003</v>
@@ -1429,7 +1429,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1454,19 +1454,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12/5/3/3/0</t>
+          <t>12/2/2/2/1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="25">
@@ -1506,16 +1506,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Simone Fontecchio</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1540,16 +1540,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12/2/2/2/1</t>
+          <t>12/5/3/3/0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I26" t="n">
         <v>0.0002</v>
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Jahmir Young</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>2/1/0/0/0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Keshon Gilbert</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>0/1/1/0/1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Joan Beringer</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4/1/1/0/1</t>
+          <t>0/1/2/1/0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>Nikola Jovic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1740,12 +1740,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>4/1/2/1/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Collin Murray-Boyles</t>
+          <t>Trey Jemison III</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2/0/0/0/1</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Pacome Dadiet</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/1/2/0/0</t>
+          <t>0/2/1/0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2/0/0/0/0</t>
+          <t>0/2/1/0/1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Kevin McCullar Jr.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/0/1/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Hugo Gonzalez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/2/0/1/0</t>
+          <t>2/1/0/0/0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Amari Williams</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2/0/0/0/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A.J. Lawson</t>
+          <t>Ariel Hukporti</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0/1/0/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alijah Martin</t>
+          <t>Jonathan Mogbo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2/1/0/1/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jahmir Young</t>
+          <t>Enrique Freeman</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2/1/0/0/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Keshon Gilbert</t>
+          <t>Joan Beringer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/1/1/0/1</t>
+          <t>4/1/1/0/1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Jamison Battle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/1/2/1/0</t>
+          <t>0/2/0/0/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nikola Jović</t>
+          <t>Collin Murray-Boyles</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4/1/2/1/0</t>
+          <t>2/0/0/0/1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Trey Jemison III</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/1/0/0/0</t>
+          <t>0/1/2/0/0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pacôme Dadiet</t>
+          <t>Julian Phillips</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0/2/1/0/0</t>
+          <t>2/0/0/0/0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Cam Christie</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0/2/1/0/1</t>
+          <t>2/0/1/0/0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kevin McCullar Jr.</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>2/2/0/1/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hugo González</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2/1/0/0/0</t>
+          <t>2/0/0/0/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Amari Williams</t>
+          <t>A.J. Lawson</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>Alijah Martin</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>2/1/0/1/0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6816</v>
+        <v>6697</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kam Jones</t>
+          <t>Will Riley</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2600,12 +2600,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7/1/1/0/0</t>
+          <t>9/1/0/1/1</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Tyler Kolek</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8/1/0/1/0</t>
+          <t>6/0/0/0/0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Kam Jones</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10/1/2/0/0</t>
+          <t>7/1/1/0/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Jaylen Clark</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7/1/1/1/0</t>
+          <t>8/1/0/1/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Will Riley</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>9/1/0/1/1</t>
+          <t>10/1/2/0/0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2805,7 +2805,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>6/0/0/0/0</t>
+          <t>7/1/1/1/0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Sharife Cooper</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6/0/4/0/0</t>
+          <t>8/1/3/1/0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Jamal Shead</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>8/1/4/0/0</t>
+          <t>6/0/4/0/0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sharife Cooper</t>
+          <t>Jordan Miller</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8/1/3/1/0</t>
+          <t>8/1/4/0/0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Tristan Vukcevic</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>15/4/0/1/1</t>
+          <t>14/5/2/0/0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3030,12 +3030,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14/5/2/0/0</t>
+          <t>14/4/1/0/1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>14/4/1/0/1</t>
+          <t>15/4/0/1/1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Justin Champagnie</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>13/6/2/1/0</t>
+          <t>13/7/1/1/0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhäuser</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>15/6/2/0/1</t>
+          <t>11/6/0/0/1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13/7/1/1/0</t>
+          <t>11/10/1/1/0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nikola Vučević</t>
+          <t>Jarace Walker</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11/6/0/0/1</t>
+          <t>13/6/2/1/0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3364,7 +3364,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Yanic Konan Niederhauser</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3374,12 +3374,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>11/10/1/1/0</t>
+          <t>15/6/2/0/1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3622,7 +3622,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>Bilal Coulibaly</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3632,12 +3632,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10/4/2/0/0</t>
+          <t>7/4/1/1/1</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bilal Coulibaly</t>
+          <t>Mohamed Diawara</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7/4/1/1/1</t>
+          <t>10/3/1/1/0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mohamed Diawara</t>
+          <t>Luka Garza</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3718,14 +3718,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NYK</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10/3/1/1/0</t>
+          <t>6/3/0/0/0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Kobe Sanders</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6/3/0/0/0</t>
+          <t>10/4/2/0/0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3923,7 +3923,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Neemias Queta</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3/3/0/0/0</t>
+          <t>4/5/1/0/0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Ron Harper Jr.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3976,12 +3976,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1/4/2/1/0</t>
+          <t>3/3/0/0/1</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4/5/1/0/0</t>
+          <t>3/3/0/0/0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ron Harper Jr.</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4062,12 +4062,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3/3/0/0/1</t>
+          <t>1/4/2/1/0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1020</v>
+        <v>977</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Davion Mitchell</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4/2/3/0/0</t>
+          <t>5/2/3/1/0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Johnny Furphy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>5/2/3/1/0</t>
+          <t>4/2/3/0/0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Josh Hart</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>20/8/5/1/0</t>
+          <t>19/6/3/0/0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4492,12 +4492,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>19/6/3/0/0</t>
+          <t>20/8/5/1/0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>

--- a/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Most_Recent_Games_Master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Maxime Raynaud</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>41/8/2/4/0</t>
+          <t>21/19/1/1/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PTS 41-50 | REB 6-10 | AST 0-2 | STL 4-5 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 16-20 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -526,22 +526,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25/14/6/2/4</t>
+          <t>7/3/10/5/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 11-15 | AST 6-8 | STL 2-3 | BLK 4-5</t>
+          <t>PTS 6-10 | REB 3-5 | AST 9-12 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -569,22 +569,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -594,40 +594,40 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22/8/3/5/0</t>
+          <t>32/1/10/2/2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 6-10 | AST 3-5 | STL 4-5 | BLK 0-1</t>
+          <t>PTS 31-40 | REB 0-2 | AST 9-12 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>CJ McCollum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,40 +637,40 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6/2/7/2/0</t>
+          <t>38/1/2/4/0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 6-8 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 31-40 | REB 0-2 | AST 0-2 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3329</v>
+        <v>0.9048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -680,42 +680,42 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>26/2/4/1/1</t>
+          <t>19/4/1/4/2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PTS 26-30 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 4-5 | BLK 2-3</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2725</v>
+        <v>0.9048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Myron Gardner</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>2025-26</t>
@@ -723,40 +723,40 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10/7/6/2/0</t>
+          <t>10/16/1/0/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 16-20 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jay Huff</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -766,40 +766,40 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15/7/2/2/2</t>
+          <t>18/5/3/1/4</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 4-5</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2466</v>
+        <v>0.8187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kasparas Jakucionis</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -809,40 +809,40 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22/3/6/2/1</t>
+          <t>11/0/4/4/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1108</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Baylor Scheierman</t>
+          <t>Dylan Cardwell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,30 +852,30 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10/13/5/0/0</t>
+          <t>6/11/1/2/2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 11-15 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1108</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -895,40 +895,40 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23/4/2/2/0</t>
+          <t>18/12/10/2/1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 11-15 | AST 9-12 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0608</v>
+        <v>0.7408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jaime Jaquez Jr.</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -938,40 +938,40 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4/4/6/0/1</t>
+          <t>22/10/7/0/3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 6-10 | AST 6-8 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0302</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alex Sarr</t>
+          <t>Donovan Clingan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -981,40 +981,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12/12/5/1/0</t>
+          <t>15/7/3/0/4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 4-5</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0273</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1024,40 +1024,40 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>31/3/8/0/0</t>
+          <t>13/6/3/0/5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PTS 31-40 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 4-5</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0273</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kel'el Ware</t>
+          <t>Matas Buzelis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1067,40 +1067,40 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19/14/1/0/1</t>
+          <t>18/4/1/0/4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 11-15 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 4-5</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0247</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1110,40 +1110,40 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5/4/4/3/1</t>
+          <t>22/14/11/2/1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 11-15 | AST 9-12 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0091</v>
+        <v>0.6703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jamir Watkins</t>
+          <t>Jeremiah Fears</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1153,35 +1153,35 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12/7/2/1/2</t>
+          <t>20/4/3/2/2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 2-3</t>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0055</v>
+        <v>0.6065</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kris Dunn</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1196,40 +1196,40 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9/5/6/1/0</t>
+          <t>23/12/5/2/0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 11-15 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0041</v>
+        <v>0.5488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Nolan Traore</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1239,40 +1239,40 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10/3/7/0/1</t>
+          <t>13/3/13/1/1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 13-20 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0041</v>
+        <v>0.5488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brook Lopez</t>
+          <t>Isaiah Collier</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1282,30 +1282,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5/2/2/0/2</t>
+          <t>13/3/9/2/0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 2-3</t>
+          <t>PTS 11-15 | REB 3-5 | AST 9-12 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0022</v>
+        <v>0.5488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Jaime Jaquez Jr.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1325,40 +1325,40 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21/4/0/1/0</t>
+          <t>9/4/5/2/2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.4966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Kyle Filipowski</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1368,40 +1368,40 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13/4/6/1/0</t>
+          <t>16/11/2/2/0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 11-15 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Isaac Okoro</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1411,40 +1411,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11/10/2/2/1</t>
+          <t>10/4/4/4/0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 3-5 | STL 4-5 | BLK 0-1</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Toumani Camara</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1454,40 +1454,40 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12/2/2/2/1</t>
+          <t>30/3/1/3/0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Anthony Black</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1497,40 +1497,40 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>11/1/1/2/0</t>
+          <t>26/5/2/2/1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Simone Fontecchio</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1540,40 +1540,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12/5/3/3/0</t>
+          <t>8/4/0/2/2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Derrick White</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1583,40 +1583,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19/1/4/0/0</t>
+          <t>30/1/4/1/0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0002</v>
+        <v>0.2466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jahmir Young</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1626,40 +1626,40 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2/1/0/0/0</t>
+          <t>10/9/6/3/0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6697</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Keshon Gilbert</t>
+          <t>Nick Richards</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1669,40 +1669,40 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0/1/1/0/1</t>
+          <t>12/6/1/2/2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6697</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dru Smith</t>
+          <t>Danny Wolf</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1712,30 +1712,30 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0/1/2/1/0</t>
+          <t>13/6/2/2/3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 2-3</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6697</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nikola Jovic</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1755,40 +1755,40 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4/1/2/1/0</t>
+          <t>23/11/5/0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 11-15 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6697</v>
+        <v>18</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Trey Jemison III</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1798,40 +1798,40 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0/1/0/0/0</t>
+          <t>26/10/8/2/1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6697</v>
+        <v>19</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pacome Dadiet</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1841,40 +1841,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/2/1/0/0</t>
+          <t>30/6/6/2/1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 6-10 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6697</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1884,40 +1884,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0/2/1/0/1</t>
+          <t>17/8/11/1/0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 6-10 | AST 9-12 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6697</v>
+        <v>20</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kevin McCullar Jr.</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1927,40 +1927,40 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>33/9/7/1/0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 31-40 | REB 6-10 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6697</v>
+        <v>22</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hugo Gonzalez</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1970,40 +1970,40 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/1/0/0/0</t>
+          <t>10/4/6/2/0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6697</v>
+        <v>23</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Amari Williams</t>
+          <t>Vince Williams Jr.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2013,40 +2013,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>5/2/7/1/0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6697</v>
+        <v>26</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ariel Hukporti</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2056,40 +2056,40 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>22/6/10/1/0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 6-10 | AST 9-12 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6697</v>
+        <v>27</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jonathan Mogbo</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2099,40 +2099,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>21/2/7/1/0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 0-2 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6697</v>
+        <v>27</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Enrique Freeman</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2142,40 +2142,40 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>22/13/1/0/0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 11-15 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6697</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Joan Beringer</t>
+          <t>Kevin Porter Jr.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2185,40 +2185,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4/1/1/0/1</t>
+          <t>28/4/7/1/0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6697</v>
+        <v>28</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jamison Battle</t>
+          <t>Jahmai Mashack</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2228,40 +2228,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/2/0/0/0</t>
+          <t>17/2/1/2/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6697</v>
+        <v>33</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Collin Murray-Boyles</t>
+          <t>VJ Edgecombe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2271,40 +2271,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2/0/0/0/1</t>
+          <t>11/6/3/0/2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6697</v>
+        <v>34</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2314,40 +2314,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0/1/2/0/0</t>
+          <t>11/7/5/0/2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6697</v>
+        <v>34</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Julian Phillips</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2357,40 +2357,40 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2/0/0/0/0</t>
+          <t>19/3/7/2/0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cam Christie</t>
+          <t>Pat Spencer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2400,40 +2400,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2/0/1/0/0</t>
+          <t>17/3/7/2/0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Scoot Henderson</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2443,40 +2443,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2/2/0/1/0</t>
+          <t>12/2/7/1/0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Dennis Schroder</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2486,40 +2486,40 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2/0/0/0/0</t>
+          <t>5/2/3/2/0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A.J. Lawson</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2529,40 +2529,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0/1/0/0/0</t>
+          <t>2/1/4/3/0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alijah Martin</t>
+          <t>Cason Wallace</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2572,40 +2572,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2/1/0/1/0</t>
+          <t>12/4/6/2/1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 3-5 | AST 6-8 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6697</v>
+        <v>35</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Will Riley</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2615,40 +2615,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9/1/0/1/1</t>
+          <t>16/2/7/1/0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 0-2 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>772</v>
+        <v>35</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tyler Kolek</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2658,40 +2658,40 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6/0/0/0/0</t>
+          <t>26/5/2/0/1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>772</v>
+        <v>45</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kam Jones</t>
+          <t>Jericho Sims</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2701,40 +2701,40 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7/1/1/0/0</t>
+          <t>5/6/1/2/0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>772</v>
+        <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jaylen Clark</t>
+          <t>Wendell Carter Jr.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2744,30 +2744,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8/1/0/1/0</t>
+          <t>4/8/2/2/0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>772</v>
+        <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2787,40 +2787,40 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10/1/2/0/0</t>
+          <t>21/1/3/1/1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>772</v>
+        <v>48</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Dru Smith</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2830,40 +2830,40 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7/1/1/1/0</t>
+          <t>4/3/3/2/0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>772</v>
+        <v>49</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sharife Cooper</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2873,40 +2873,40 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8/1/3/1/0</t>
+          <t>23/3/7/0/1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jamal Shead</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2916,40 +2916,40 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6/0/4/0/0</t>
+          <t>15/1/3/2/0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jordan Miller</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2959,35 +2959,35 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8/1/4/0/0</t>
+          <t>13/10/2/1/2</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 2-3</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tristan Vukcevic</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3002,40 +3002,40 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>14/5/2/0/0</t>
+          <t>22/5/3/2/0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3045,40 +3045,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>14/4/1/0/1</t>
+          <t>24/3/3/2/1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>405</v>
+        <v>54</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>John Collins</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3088,40 +3088,40 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>15/4/0/1/1</t>
+          <t>8/4/6/0/1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>405</v>
+        <v>58</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TyTy Washington Jr.</t>
+          <t>Nique Clifford</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3131,40 +3131,40 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0/0/2/2/1</t>
+          <t>10/5/6/1/0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Noah Clowney</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3174,40 +3174,40 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8/9/3/1/0</t>
+          <t>22/6/0/0/1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Justin Champagnie</t>
+          <t>Jrue Holiday</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3217,40 +3217,40 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>13/7/1/1/0</t>
+          <t>13/7/7/1/0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3260,40 +3260,40 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11/6/0/0/1</t>
+          <t>28/10/4/1/0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 26-30 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3303,40 +3303,40 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>11/10/1/1/0</t>
+          <t>18/5/6/1/0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jarace Walker</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3346,40 +3346,40 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>13/6/2/1/0</t>
+          <t>19/3/3/2/0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Yanic Konan Niederhauser</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3389,40 +3389,40 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>15/6/2/0/1</t>
+          <t>19/3/2/2/0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>281</v>
+        <v>65</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Micah Potter</t>
+          <t>Ryan Rollins</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3432,40 +3432,40 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8/8/2/0/0</t>
+          <t>14/6/3/2/0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Jaden Ivey</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3475,40 +3475,40 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10/7/2/0/1</t>
+          <t>13/6/3/3/1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Trayce Jackson-Davis</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3518,40 +3518,40 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10/10/1/1/1</t>
+          <t>16/9/6/1/0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 16-20 | REB 6-10 | AST 6-8 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jalen Williams</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3561,40 +3561,40 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>13/5/3/0/1</t>
+          <t>23/3/1/1/0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ben Sheppard</t>
+          <t>Collin Sexton</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3604,40 +3604,40 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>12/5/4/0/0</t>
+          <t>21/5/1/1/0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bilal Coulibaly</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3647,40 +3647,40 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7/4/1/1/1</t>
+          <t>25/3/1/0/0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 21-25 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>713</v>
+        <v>79</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mohamed Diawara</t>
+          <t>Taylor Hendricks</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3690,40 +3690,40 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10/3/1/1/0</t>
+          <t>15/10/2/3/0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>713</v>
+        <v>82</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Luka Garza</t>
+          <t>Moritz Wagner</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3733,40 +3733,40 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>6/3/0/0/0</t>
+          <t>14/2/0/2/0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>713</v>
+        <v>84</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kobe Sanders</t>
+          <t>MarJon Beauchamp</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3776,40 +3776,40 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10/4/2/0/0</t>
+          <t>10/4/4/3/0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 3-5 | AST 3-5 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>713</v>
+        <v>90</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3819,40 +3819,40 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>5/9/2/0/0</t>
+          <t>7/6/2/2/1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jordan Walsh</t>
+          <t>Rob Dillingham</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3862,40 +3862,40 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2/6/1/1/0</t>
+          <t>8/7/1/2/0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>Ausar Thompson</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3905,40 +3905,40 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>17/8/2/0/0</t>
+          <t>6/8/2/2/0</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Neemias Queta</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3948,16 +3948,16 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4/5/1/0/0</t>
+          <t>2/2/0/1/1</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>977</v>
+        <v>6728</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ron Harper Jr.</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3991,16 +3991,16 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3/3/0/0/1</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>977</v>
+        <v>6728</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4009,22 +4009,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Kenrich Williams</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>3/3/0/0/0</t>
+          <t>0/0/0/1/0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>977</v>
+        <v>6728</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4052,22 +4052,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Quinten Post</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4077,16 +4077,16 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1/4/2/1/0</t>
+          <t>0/0/2/0/0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>977</v>
+        <v>6728</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4095,22 +4095,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Davion Mitchell</t>
+          <t>Yang Hansen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4120,16 +4120,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5/2/3/1/0</t>
+          <t>2/1/0/0/0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>280</v>
+        <v>6728</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Johnny Furphy</t>
+          <t>Rayan Rupert</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4163,16 +4163,16 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4/2/3/0/0</t>
+          <t>3/1/0/0/0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>280</v>
+        <v>6728</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -4181,22 +4181,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Patrick Baldwin Jr.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4206,16 +4206,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>3/4/3/1/0</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>174</v>
+        <v>6728</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4224,22 +4224,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Johni Broome</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4249,16 +4249,16 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>18/4/2/0/0</t>
+          <t>0/2/0/0/1</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>216</v>
+        <v>6728</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4267,22 +4267,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Sandro Mamukelashvili</t>
+          <t>Javonte Cooke</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4292,16 +4292,16 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17/4/1/1/0</t>
+          <t>2/2/0/0/0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>216</v>
+        <v>6728</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4310,22 +4310,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Gradey Dick</t>
+          <t>Jalen Pickett</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4335,16 +4335,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8/1/1/3/0</t>
+          <t>3/0/0/0/0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>128</v>
+        <v>6728</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kyshawn George</t>
+          <t>Craig Porter Jr.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4378,16 +4378,16 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>13/2/3/0/1</t>
+          <t>0/1/0/0/0</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>153</v>
+        <v>6728</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4396,22 +4396,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bub Carrington</t>
+          <t>Drew Eubanks</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4421,16 +4421,16 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>13/2/5/1/0</t>
+          <t>4/1/1/0/0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>153</v>
+        <v>6728</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4439,22 +4439,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Josh Hart</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4464,16 +4464,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>19/6/3/0/0</t>
+          <t>3/2/1/0/0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>153</v>
+        <v>6728</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4482,22 +4482,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Micah Peavy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4507,16 +4507,16 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>20/8/5/1/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>PTS 16-20 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>153</v>
+        <v>6728</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4525,22 +4525,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ja'Kobe Walter</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4550,16 +4550,16 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6/4/2/2/1</t>
+          <t>0/0/2/0/0</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>130</v>
+        <v>6728</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4568,22 +4568,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Andrew Nembhard</t>
+          <t>Jaylen Clark</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4593,18 +4593,4963 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10/3/2/2/0</t>
+          <t>3/0/0/0/0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Buddy Hield</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jevon Carter</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0/1/0/0/0</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Cody Williams</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2/1/0/0/1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Myron Gardner</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0/0/1/0/0</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Cam Thomas</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4/1/1/0/0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ousmane Dieng</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2/1/0/1/0</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Pete Nance</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jonathan Isaac</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2/1/1/0/1</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guerschon Yabusele</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3/2/1/1/0</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jett Howard</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Thanasis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0/1/1/0/0</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Gary Harris</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0/0/0/0/1</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Andre Jackson Jr.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0/1/0/0/0</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Isaiah Stewart</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Javonte Green</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6728</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Luke Kennard</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7/1/1/1/0</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>781</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Adem Bona</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7/1/0/0/0</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>781</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Kyle Lowry</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6/1/1/1/1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>781</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sam Merrill</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9/2/1/1/0</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>781</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Nae'Qwan Tomlin</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6/1/0/0/1</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>781</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jordan Hawkins</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6/0/1/0/0</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>781</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8/1/1/0/0</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>781</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Patrick Williams</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7/2/1/0/0</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>781</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Bobby Portis</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>10/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>781</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Bryce McGowens</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8/1/3/1/0</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>230</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Terance Mann</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9/1/3/1/1</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>230</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sion James</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6/2/3/0/0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>230</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jaxson Hayes</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>12/4/1/0/0</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>416</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jake LaRavia</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>14/4/1/1/1</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>416</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jaylin Williams</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>11/3/2/0/0</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>416</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Rui Hachimura</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>12/5/2/0/0</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>416</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Jerami Grant</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>15/4/2/1/0</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>416</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Jonas Valanciunas</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>12/4/0/0/0</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>416</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Brice Sensabaugh</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>14/4/2/0/0</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>416</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Saddiq Bey</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>12/4/1/0/0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>416</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Drake Powell</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>14/5/0/0/0</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>416</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Jalen Duren</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>15/5/2/1/0</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>416</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>11/5/1/1/1</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>416</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Alex Caruso</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>17/1/2/1/0</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>128</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>17/2/2/0/0</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>128</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Tristan da Silva</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3/1/1/2/0</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>143</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Caris LeVert</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5/2/1/2/1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>143</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Jock Landale</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>12/6/0/0/0</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>284</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Karlo Matkovic</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>12/9/1/0/0</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>284</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>AJ Green</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>15/6/1/0/0</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>284</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Deandre Ayton</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6/10/0/0/0</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>364</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Robert Williams III</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8/6/2/0/1</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>364</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Day'Ron Sharpe</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6/7/0/0/0</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>364</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mouhamed Gueye</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>10/7/0/0/0</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>364</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Kel'el Ware</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8/6/0/1/0</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>364</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Corey Kispert</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>12/7/4/0/1</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>227</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>11/9/3/0/0</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 6-10 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>227</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Onyeka Okongwu</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>14/5/3/1/0</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>287</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Devin Carter</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>12/3/4/1/0</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>287</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kentavious Caldwell-Pope</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>15/1/2/1/0</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>302</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tim Hardaway Jr.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>12/1/0/1/0</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>302</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Luguentz Dort</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7/5/1/1/1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>722</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jared McCain</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7/3/0/0/0</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>722</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GG Jackson</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6/4/2/1/0</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>722</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>De'Anthony Melton</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>10/3/2/0/0</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>722</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jaylen Wells</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>10/3/0/0/0</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>722</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Miles Bridges</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6/4/1/0/0</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>722</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Yves Missi</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7/5/1/0/1</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>722</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Simone Fontecchio</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>9/5/2/1/0</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>722</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Ryan Kalkbrenner</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6/4/0/0/0</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>722</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Moussa Diabate</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0/6/0/0/0</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>226</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Noah Penda</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5/6/2/1/0</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>226</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Brandin Podziemski</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>16/4/5/1/0</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>206</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Duncan Robinson</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>18/3/4/0/0</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>206</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Kon Knueppel</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>20/5/3/0/1</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>206</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LaMelo Ball</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>20/4/4/0/0</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>206</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Gui Santos</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>16/8/2/1/0</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>162</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Julian Strawther</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>20/6/0/0/0</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>162</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Ace Bailey</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>16/8/2/1/0</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>162</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Rudy Gobert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>18/6/1/0/1</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>162</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>17/8/1/0/0</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 6-10 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>162</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Aaron Wiggins</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0/4/1/0/0</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>990</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Sidy Cissoko</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0/5/0/0/1</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>990</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Will Richard</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3/4/0/0/0</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>990</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Thomas Bryant</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5/3/1/0/0</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>990</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Keon Ellis</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2/3/1/1/1</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>990</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3/5/0/1/0</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>990</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Asa Newell</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2/4/1/0/0</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>990</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Daeqwon Plowden</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5/3/2/0/0</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>990</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Jase Richardson</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5/3/0/0/0</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>990</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nikola Jovic</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0/4/0/0/0</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>990</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Kevin Huerter</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0/3/1/1/0</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>990</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Tre Mann</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5/4/2/1/0</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>990</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Josh Green</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5/5/1/0/0</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>990</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Vit Krejci</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5/2/3/0/0</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>283</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Blake Wesley</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4/1/3/0/0</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>283</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Ben Saraf</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3/0/3/1/0</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>283</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Draymond Green</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>14/4/2/2/0</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>119</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Justin Edwards</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>12/4/2/3/0</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>119</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Paul Reed</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>12/3/1/2/1</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>119</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Ziaire Williams</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>11/5/2/2/0</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>119</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Cam Spencer</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2/4/4/0/0</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>176</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Cedric Coward</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2/3/3/0/0</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>176</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Jaylon Tyson</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>16/3/1/0/0</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>219</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Christian Braun</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>20/5/2/0/0</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>219</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Kasparas Jakucionis</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>20/3/1/0/0</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>PTS 16-20 | REB 3-5 | AST 0-2 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>219</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Bruce Brown</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1/4/0/2/0</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>101</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Zaccharie Risacher</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3/4/1/2/0</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>101</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Jalen Wilson</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4/4/1/2/0</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>101</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Daniss Jenkins</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4/3/1/2/0</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>PTS 0-5 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>101</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Trendon Watford</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>12/2/3/0/0</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>158</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Bones Hyland</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>13/1/5/0/0</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>158</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Grant Williams</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>12/2/5/1/1</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>158</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Davion Mitchell</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>12/2/5/0/0</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>158</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>14/2/5/0/0</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>PTS 11-15 | REB 0-2 | AST 3-5 | STL 0-1 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>158</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Javon Small</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>8/3/1/2/0</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
           <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>130</v>
-      </c>
-      <c r="I97" t="n">
+      <c r="H208" t="n">
+        <v>135</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gary Payton II</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>7/4/2/3/1</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>135</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>10/4/1/3/0</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>135</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Derik Queen</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>8/5/1/3/1</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>135</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Precious Achiuwa</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2025-26</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>8/3/0/3/1</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>PTS 6-10 | REB 3-5 | AST 0-2 | STL 2-3 | BLK 0-1</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>135</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
